--- a/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice_line.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice_line.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="218">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -76,25 +76,316 @@
     <t xml:space="preserve">Special service for Young people</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.coa_512000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_22v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;1-01-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">####-01-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_PY_2_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_PY_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.product_product_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sviluppo prototipo Powerp</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.coa_510200</t>
   </si>
   <si>
-    <t xml:space="preserve">0.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_22v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;1-01-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">####-01-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_PY_2_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_PY_2</t>
+    <t xml:space="preserve">&lt;2-12-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#&gt;-11-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_Z0_1_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_Z0_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.product_product_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prodotto Alpha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.coa_510000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_Z0_1_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.product_product_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prodotto Beta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_Z0_1_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.product_product_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prodotto Chi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_Z0_1_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.product_product_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prodotto Delta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_Z0_1_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.product_product_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prodotto Epsilon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_Z0_1_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.product_product_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prodotto Phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_Z0_1_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.product_product_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prodotto Gamma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_Z0_1_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.product_product_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prodotto Hospice/Eta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_4v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_Z0_1_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.product_product_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prodotto Iota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_10v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_Z0_1_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.product_product_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prodotto Juvenilia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_Z0_1_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.product_product_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prodotto Kappa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_Z0_1_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.product_product_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prodotto Lambda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_Z0_1_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.product_product_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prodotto Micro/Mu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_Z0_1_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.product_product_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prodotto New/Nu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_Z0_1_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.product_product_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prodotto Omicron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_Z0_1_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.product_product_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prodotto Greek Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_Z0_1_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.product_product_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prodotto Quality/Omega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_Z0_1_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.product_product_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prodotto Rho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.coa_510100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_Z0_1_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.product_product_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prodotto Sigma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_Z0_1_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.product_product_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prodotto Tau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_Z0_1_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.product_product_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prodotto Upsilon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_Z0_1_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.product_product_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prodotto Theta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_Z0_1_23</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.product_product_23</t>
@@ -109,282 +400,6 @@
     <t xml:space="preserve">z0bug.tax_a15v</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.invoice_Z0_1_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_Z0_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.product_product_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prodotto Alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.coa_510000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_Z0_1_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.product_product_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prodotto Beta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_Z0_1_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.product_product_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prodotto Chi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_Z0_1_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.product_product_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prodotto Delta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_Z0_1_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.product_product_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prodotto Epsilon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_Z0_1_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.product_product_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prodotto Phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_Z0_1_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.product_product_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prodotto Gamma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_Z0_1_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.product_product_8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prodotto Hospice/Eta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_4v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_Z0_1_09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.product_product_9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prodotto Iota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_10v</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_Z0_1_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.product_product_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prodotto Juvenilia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_Z0_1_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.product_product_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prodotto Kappa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_Z0_1_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.product_product_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prodotto Lambda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_Z0_1_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.product_product_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prodotto Micro/Mu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_Z0_1_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.product_product_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prodotto New/Nu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_Z0_1_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.product_product_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prodotto Omicron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_Z0_1_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.product_product_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prodotto Greek Pi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_Z0_1_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.product_product_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prodotto Quality/Omega</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_Z0_1_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.product_product_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prodotto Rho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.coa_510100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_Z0_1_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.product_product_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prodotto Sigma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_Z0_1_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.product_product_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prodotto Tau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_Z0_1_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.product_product_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prodotto Upsilon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_Z0_1_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.product_product_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prodotto Theta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_Z0_1_23</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0bug.invoice_Z0_1_24</t>
   </si>
   <si>
@@ -427,9 +442,6 @@
     <t xml:space="preserve">z0bug.invoice_Z0_1_28</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.product_product_0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sconto assoluto</t>
   </si>
   <si>
@@ -619,28 +631,31 @@
     <t xml:space="preserve">z0bug.tax_a17c6ca</t>
   </si>
   <si>
+    <t xml:space="preserve">####-12-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_ZI_6_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informazione commerciale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_ZI_7_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_ZI_7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sconto su ns. fattura 21/TO/1234</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;#-##-99</t>
   </si>
   <si>
-    <t xml:space="preserve">####-&lt;#-99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_ZI_6_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Informazione commerciale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.tax_a1a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_ZI_7_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.invoice_ZI_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sconto su ns. fattura 21/TO/1234</t>
+    <t xml:space="preserve">#&gt;-&lt;#-99</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.invoice_ZI_8_1</t>
@@ -809,10 +824,10 @@
   </sheetPr>
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="N51" activeCellId="0" sqref="N51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -926,43 +941,47 @@
         <v>26</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="H3" s="1" t="n">
+        <v>2500</v>
+      </c>
       <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="M3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="N3" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>20</v>
@@ -971,26 +990,26 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>20</v>
@@ -999,26 +1018,26 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>20</v>
@@ -1027,26 +1046,26 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>20</v>
@@ -1055,26 +1074,26 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>20</v>
@@ -1083,26 +1102,26 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>20</v>
@@ -1111,26 +1130,26 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>20</v>
@@ -1139,82 +1158,82 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>8</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>9</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>20</v>
@@ -1223,26 +1242,26 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>11</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>20</v>
@@ -1251,26 +1270,26 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" s="1" t="n">
         <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>20</v>
@@ -1279,26 +1298,26 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F16" s="1" t="n">
         <v>13</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>20</v>
@@ -1307,26 +1326,26 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F17" s="1" t="n">
         <v>14</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>20</v>
@@ -1335,26 +1354,26 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F18" s="1" t="n">
         <v>15</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>20</v>
@@ -1363,26 +1382,26 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F19" s="1" t="n">
         <v>16</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>20</v>
@@ -1391,26 +1410,26 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F20" s="1" t="n">
         <v>17</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>20</v>
@@ -1419,26 +1438,26 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F21" s="1" t="n">
         <v>18</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>20</v>
@@ -1447,26 +1466,26 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F22" s="1" t="n">
         <v>19</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>20</v>
@@ -1475,26 +1494,26 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F23" s="1" t="n">
         <v>20</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>20</v>
@@ -1503,26 +1522,26 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F24" s="1" t="n">
         <v>21</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>20</v>
@@ -1531,26 +1550,26 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F25" s="1" t="n">
         <v>22</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>20</v>
@@ -1559,54 +1578,54 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="F26" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="J26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F27" s="1" t="n">
         <v>24</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>20</v>
@@ -1615,10 +1634,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
@@ -1631,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>19</v>
@@ -1643,26 +1662,26 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F29" s="1" t="n">
         <v>26</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>20</v>
@@ -1671,26 +1690,26 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F30" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>20</v>
@@ -1699,23 +1718,23 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H31" s="1" t="n">
         <v>-50</v>
@@ -1727,26 +1746,26 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F32" s="1" t="n">
         <v>100</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>20</v>
@@ -1755,26 +1774,26 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F33" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>20</v>
@@ -1783,141 +1802,141 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F34" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H34" s="1" t="n">
         <v>10</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="J34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F35" s="1" t="n">
         <v>250</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H35" s="1" t="n">
         <v>1</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="J35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F36" s="1" t="n">
         <v>5</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H36" s="1" t="n">
         <v>18</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F37" s="1" t="n">
         <v>100</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="J37" s="1"/>
       <c r="L37" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>100</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>20</v>
@@ -1926,26 +1945,26 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F39" s="1" t="n">
         <v>50</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>20</v>
@@ -1954,26 +1973,26 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F40" s="1" t="n">
         <v>150</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>20</v>
@@ -1982,26 +2001,26 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F41" s="1" t="n">
         <v>150</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>20</v>
@@ -2010,26 +2029,26 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>20</v>
@@ -2038,358 +2057,365 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F43" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H43" s="1" t="n">
         <v>1500</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F44" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H44" s="1" t="n">
         <v>500</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F45" s="1" t="n">
         <v>1000</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="F46" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="H46" s="1" t="n">
         <v>0.475</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="F47" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="H47" s="1" t="n">
         <v>0.475</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F48" s="1" t="n">
         <v>20</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H48" s="1" t="n">
         <v>-0.475</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F49" s="1" t="n">
         <v>120</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F50" s="1" t="n">
         <v>40</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>199</v>
+        <v>22</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F51" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F52" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H52" s="1" t="n">
         <v>60</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="J52" s="1"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F53" s="1" t="n">
         <v>40</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F54" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>

--- a/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice_line.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice_line.xlsx
@@ -825,9 +825,9 @@
   <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
+      <selection pane="bottomLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -947,7 +947,7 @@
         <v>27</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>20</v>

--- a/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice_line.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice_line.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="220">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -482,6 +482,12 @@
   </si>
   <si>
     <t xml:space="preserve">z0bug.tax_a41v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_Z0_4_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prodotto Zeta (versione EU)</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.invoice_Z0_5_1</t>
@@ -684,7 +690,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -725,6 +731,11 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -776,7 +787,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -805,6 +816,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -822,12 +837,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1861,73 +1876,70 @@
         <v>154</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>156</v>
+        <v>132</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="F36" s="1" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>18</v>
+        <v>1.5</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>161</v>
+      <c r="H37" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J37" s="1"/>
-      <c r="L37" s="6" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="F38" s="1" t="n">
         <v>100</v>
@@ -1936,35 +1948,38 @@
         <v>103</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="J38" s="1"/>
+      <c r="L38" s="7" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>103</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>20</v>
@@ -1976,23 +1991,23 @@
         <v>168</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>20</v>
@@ -2004,14 +2019,14 @@
         <v>170</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F41" s="1" t="n">
         <v>150</v>
@@ -2020,7 +2035,7 @@
         <v>34</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>20</v>
@@ -2029,26 +2044,26 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>172</v>
+        <v>58</v>
       </c>
       <c r="F42" s="1" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>20</v>
@@ -2057,143 +2072,143 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F43" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H43" s="1" t="n">
-        <v>1500</v>
+        <v>34</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>179</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F44" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H44" s="1" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J44" s="1"/>
+        <v>180</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>143</v>
+        <v>185</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>500</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H46" s="1" t="n">
-        <v>0.475</v>
+        <v>188</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F47" s="1" t="n">
         <v>20</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H47" s="1" t="n">
         <v>0.475</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J47" s="1"/>
     </row>
@@ -2202,26 +2217,26 @@
         <v>193</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F48" s="1" t="n">
         <v>20</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H48" s="1" t="n">
-        <v>-0.475</v>
+        <v>0.475</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J48" s="1"/>
     </row>
@@ -2230,195 +2245,223 @@
         <v>195</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F49" s="1" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <v>-0.475</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F50" s="1" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="J50" s="1"/>
-      <c r="K50" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N50" s="4" t="s">
-        <v>203</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N51" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="F51" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F52" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H52" s="1" t="n">
-        <v>60</v>
+        <v>188</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="J52" s="1"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>211</v>
-      </c>
+      <c r="K52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>201</v>
+        <v>188</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <v>60</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="J53" s="1"/>
-      <c r="K53" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>215</v>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F54" s="1" t="n">
+      <c r="E55" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F55" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H54" s="1" t="s">
+      <c r="G55" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I54" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
+      <c r="I55" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice_line.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice_line.xlsx
@@ -517,7 +517,7 @@
     <t xml:space="preserve">z0bug.tax_a8c2v</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.li_partner_6</t>
+    <t xml:space="preserve">z0bug.li_partner_6_%(year)s</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.invoice_Z0_7_1</t>
@@ -690,7 +690,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -731,11 +731,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -787,7 +782,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -816,10 +811,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -842,7 +833,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="L38" activeCellId="0" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1882,7 +1873,7 @@
       <c r="D36" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="1" t="s">
         <v>155</v>
       </c>
       <c r="F36" s="1" t="n">
@@ -1954,7 +1945,7 @@
         <v>164</v>
       </c>
       <c r="J38" s="1"/>
-      <c r="L38" s="7" t="s">
+      <c r="L38" s="6" t="s">
         <v>165</v>
       </c>
     </row>

--- a/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice_line.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice_line.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="224">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -680,6 +680,18 @@
   </si>
   <si>
     <t xml:space="preserve">z0bug.invoice_ZI_8_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_ZI_9_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_ZI_9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a41a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_ZI_9_2</t>
   </si>
 </sst>
 </file>
@@ -735,7 +747,7 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -828,12 +840,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L38" activeCellId="0" sqref="L38"/>
+      <selection pane="bottomLeft" activeCell="A57" activeCellId="0" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2454,6 +2466,68 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H56" s="1" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H57" s="1" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice_line.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice_line.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">Special service for Young people</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.coa_512000</t>
+    <t xml:space="preserve">external.512000</t>
   </si>
   <si>
     <t xml:space="preserve">0.71</t>
@@ -103,7 +103,7 @@
     <t xml:space="preserve">Sviluppo prototipo Powerp</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.coa_510200</t>
+    <t xml:space="preserve">external.510200</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;2-12-01</t>
@@ -124,7 +124,7 @@
     <t xml:space="preserve">Prodotto Alpha</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.coa_510000</t>
+    <t xml:space="preserve">external.510000</t>
   </si>
   <si>
     <t xml:space="preserve">0.84</t>
@@ -331,7 +331,7 @@
     <t xml:space="preserve">Prodotto Rho</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.coa_510100</t>
+    <t xml:space="preserve">external.510100</t>
   </si>
   <si>
     <t xml:space="preserve">1.19</t>
@@ -559,7 +559,7 @@
     <t xml:space="preserve">Costituzione società</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.coa_623460</t>
+    <t xml:space="preserve">external.623460</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.tax_22a</t>
@@ -577,7 +577,7 @@
     <t xml:space="preserve">PC Nico</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.coa_123380</t>
+    <t xml:space="preserve">external.123380</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.invoice_ZI_2_1</t>
@@ -586,7 +586,7 @@
     <t xml:space="preserve">z0bug.invoice_ZI_2</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.coa_610100</t>
+    <t xml:space="preserve">external.610100</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.tax_2220</t>
@@ -843,9 +843,9 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A57" activeCellId="0" sqref="A57"/>
+      <selection pane="bottomLeft" activeCell="G32" activeCellId="0" sqref="G2:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice_line.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/account_invoice_line.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="228">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -631,6 +631,9 @@
     <t xml:space="preserve">z0bug.invoice_ZI_6</t>
   </si>
   <si>
+    <t xml:space="preserve">Prodotto compatibile Phi</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.5</t>
   </si>
   <si>
@@ -692,6 +695,15 @@
   </si>
   <si>
     <t xml:space="preserve">z0bug.invoice_ZI_9_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_ZI_10_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_ZI_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.invoice_ZI_10_2</t>
   </si>
 </sst>
 </file>
@@ -840,12 +852,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G32" activeCellId="0" sqref="G2:G57"/>
+      <selection pane="bottomLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2311,7 +2323,7 @@
         <v>53</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F51" s="1" t="n">
         <v>40</v>
@@ -2320,10 +2332,10 @@
         <v>188</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1" t="n">
@@ -2333,12 +2345,12 @@
         <v>22</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>202</v>
@@ -2348,7 +2360,7 @@
         <v>25</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F52" s="1" t="n">
         <v>1</v>
@@ -2360,24 +2372,24 @@
         <v>138</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F53" s="1" t="n">
         <v>1</v>
@@ -2394,25 +2406,25 @@
       <c r="J53" s="1"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
         <v>53</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F54" s="1" t="n">
         <v>40</v>
@@ -2421,35 +2433,35 @@
         <v>188</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1" t="n">
         <v>1</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F55" s="1" t="n">
         <v>1</v>
@@ -2461,17 +2473,17 @@
         <v>138</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
@@ -2490,7 +2502,7 @@
         <v>0.89</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1" t="n">
@@ -2499,10 +2511,10 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
@@ -2521,13 +2533,78 @@
         <v>1.05</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1" t="n">
         <v>1</v>
       </c>
     </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H58" s="1" t="n">
+        <v>2.8081</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" s="4"/>
+      <c r="N58" s="2"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F59" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H59" s="1" t="n">
+        <v>0.3483</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
